--- a/src/test/resources/testCases.xlsx
+++ b/src/test/resources/testCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Initial Testcase Excel</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>author</t>
+  </si>
+  <si>
+    <t>bug_2020_user1</t>
   </si>
   <si>
     <t>Pass</t>
@@ -2267,7 +2270,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I15"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2278,8 +2281,8 @@
     <col min="1" max="1" width="22.3047" style="39" customWidth="1"/>
     <col min="2" max="6" width="16.3516" style="39" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="39" customWidth="1"/>
-    <col min="8" max="9" width="16.3516" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="39" customWidth="1"/>
+    <col min="8" max="10" width="16.3516" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2294,6 +2297,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -2320,8 +2324,11 @@
       <c r="H2" t="s" s="19">
         <v>28</v>
       </c>
-      <c r="I2" t="s" s="40">
+      <c r="I2" t="s" s="19">
         <v>29</v>
+      </c>
+      <c r="J2" t="s" s="40">
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="20.45" customHeight="1">
@@ -2344,14 +2351,15 @@
         <v>7</v>
       </c>
       <c r="G3" t="s" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="41">
         <v>0</v>
       </c>
       <c r="I3" t="s" s="24">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" ht="20.2" customHeight="1">
       <c r="A4" t="s" s="29">
@@ -2373,14 +2381,15 @@
         <v>4</v>
       </c>
       <c r="G4" t="s" s="43">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="44">
         <v>3</v>
       </c>
       <c r="I4" t="s" s="30">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" ht="20.2" customHeight="1">
       <c r="A5" t="s" s="33">
@@ -2402,14 +2411,15 @@
         <v>4</v>
       </c>
       <c r="G5" t="s" s="43">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="45">
         <v>5</v>
       </c>
       <c r="I5" t="s" s="34">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" ht="20.2" customHeight="1">
       <c r="A6" t="s" s="29">
@@ -2431,13 +2441,16 @@
         <v>7</v>
       </c>
       <c r="G6" t="s" s="30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="44">
         <v>0</v>
       </c>
       <c r="I6" t="s" s="30">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J6" t="s" s="30">
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="20.2" customHeight="1">
@@ -2460,13 +2473,16 @@
         <v>7</v>
       </c>
       <c r="G7" t="s" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="45">
         <v>0</v>
       </c>
       <c r="I7" t="s" s="34">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="34">
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="20.2" customHeight="1">
@@ -2489,13 +2505,16 @@
         <v>7</v>
       </c>
       <c r="G8" t="s" s="43">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="44">
         <v>1</v>
       </c>
       <c r="I8" t="s" s="30">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J8" t="s" s="30">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="20.2" customHeight="1">
@@ -2518,14 +2537,15 @@
         <v>7</v>
       </c>
       <c r="G9" t="s" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="45">
         <v>0</v>
       </c>
       <c r="I9" t="s" s="34">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" ht="20.2" customHeight="1">
       <c r="A10" t="s" s="29">
@@ -2547,14 +2567,15 @@
         <v>7</v>
       </c>
       <c r="G10" t="s" s="30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="44">
         <v>0</v>
       </c>
       <c r="I10" t="s" s="30">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" ht="20.2" customHeight="1">
       <c r="A11" t="s" s="33">
@@ -2576,14 +2597,15 @@
         <v>7</v>
       </c>
       <c r="G11" t="s" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="45">
         <v>0</v>
       </c>
       <c r="I11" t="s" s="34">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" ht="20.2" customHeight="1">
       <c r="A12" t="s" s="29">
@@ -2605,14 +2627,15 @@
         <v>7</v>
       </c>
       <c r="G12" t="s" s="30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="44">
         <v>0</v>
       </c>
       <c r="I12" t="s" s="30">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" ht="20.2" customHeight="1">
       <c r="A13" t="s" s="33">
@@ -2634,14 +2657,15 @@
         <v>7</v>
       </c>
       <c r="G13" t="s" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" s="45">
         <v>0</v>
       </c>
       <c r="I13" t="s" s="34">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" ht="20.2" customHeight="1">
       <c r="A14" s="32"/>
@@ -2653,6 +2677,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
       <c r="A15" s="36"/>
@@ -2664,10 +2689,11 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/src/test/resources/testCases.xlsx
+++ b/src/test/resources/testCases.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>Initial Testcase Excel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>Initial Structure</t>
   </si>
   <si>
     <t>testcase_name</t>
@@ -94,13 +94,19 @@
     <t>Storing Additional Information</t>
   </si>
   <si>
-    <t>Disabled</t>
-  </si>
-  <si>
     <t>last_execution_status</t>
   </si>
   <si>
     <t>fail_count</t>
+  </si>
+  <si>
+    <t>is_disabled</t>
+  </si>
+  <si>
+    <t>is_flaky</t>
+  </si>
+  <si>
+    <t>bug_2020_user1</t>
   </si>
   <si>
     <t>author</t>
@@ -221,21 +227,6 @@
         <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -276,13 +267,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -298,10 +304,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -310,115 +322,91 @@
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,8 +433,8 @@
       <rgbColor rgb="fff7f7f6"/>
       <rgbColor rgb="fffefc78"/>
       <rgbColor rgb="ffffd478"/>
+      <rgbColor rgb="ffffb5a8"/>
       <rgbColor rgb="ffc0c0c0"/>
-      <rgbColor rgb="ffffb5a8"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1505,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G15"/>
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -1513,199 +1501,125 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.3047" style="1" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.4453" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3047" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="B1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="C2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" t="s" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="B4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="B5" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="C5" t="s" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="B6" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" t="s" s="13">
+      <c r="B7" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="C7" t="s" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="B8" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" t="s" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" t="s" s="13">
+      <c r="B9" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B9" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" t="s" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="B10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="B10" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="C10" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" t="s" s="13">
+      <c r="B11" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="C11" t="s" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="B12" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B12" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="C12" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" t="s" s="13">
+      <c r="B13" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="C13" t="s" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1717,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H15"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -1725,238 +1639,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.3047" style="18" customWidth="1"/>
-    <col min="2" max="8" width="16.3516" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="41.7656" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.3047" style="15" customWidth="1"/>
+    <col min="3" max="4" width="16.3516" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="B1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="19">
+      <c r="C2" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="D2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="C3" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" t="s" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="B4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="C4" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="B5" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="C5" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="D5" t="s" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="B6" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="C6" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" t="s" s="13">
+      <c r="B7" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="14">
+      <c r="C7" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="D7" t="s" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="B8" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="C8" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C8" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" t="s" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" t="s" s="13">
+      <c r="B9" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="C9" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="D9" t="s" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="B10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="C10" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="D10" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" t="s" s="13">
+      <c r="B11" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="14">
+      <c r="C11" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="D11" t="s" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="B12" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="C12" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="D12" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" t="s" s="13">
+      <c r="B13" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="14">
+      <c r="C13" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="D13" t="s" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1968,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H15"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -1976,286 +1816,242 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.3047" style="20" customWidth="1"/>
-    <col min="2" max="8" width="16.3516" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.6797" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.3047" style="17" customWidth="1"/>
+    <col min="3" max="6" width="16.3516" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="B1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="19">
+      <c r="C2" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="19">
+      <c r="D2" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="19">
+      <c r="E2" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="E2" t="s" s="19">
+      <c r="F2" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="B3" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="24">
+      <c r="C3" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="25">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="24">
-        <v>4</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="D3" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="22">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" t="s" s="29">
+      <c r="B4" t="s" s="23">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="30">
+      <c r="C4" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="D4" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" t="s" s="33">
+      <c r="B5" t="s" s="25">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="34">
+      <c r="C5" t="s" s="26">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="D5" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" t="s" s="29">
+      <c r="B6" t="s" s="23">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="30">
+      <c r="C6" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="37">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="D6" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" t="s" s="33">
+      <c r="B7" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="34">
+      <c r="C7" t="s" s="26">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="D7" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" t="s" s="29">
+      <c r="B8" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="30">
+      <c r="C8" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="C8" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="D8" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" t="s" s="33">
+      <c r="B9" t="s" s="25">
         <v>11</v>
       </c>
-      <c r="B9" t="s" s="34">
+      <c r="C9" t="s" s="26">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="37">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="D9" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" t="s" s="29">
+      <c r="B10" t="s" s="23">
         <v>12</v>
       </c>
-      <c r="B10" t="s" s="30">
+      <c r="C10" t="s" s="24">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="D10" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" t="s" s="33">
+      <c r="B11" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="B11" t="s" s="34">
+      <c r="C11" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="D11" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" t="s" s="29">
+      <c r="B12" t="s" s="23">
         <v>14</v>
       </c>
-      <c r="B12" t="s" s="30">
+      <c r="C12" t="s" s="24">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="D12" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" t="s" s="33">
+      <c r="B13" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="34">
+      <c r="C13" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="37">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="D13" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2267,7 +2063,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I15"/>
+  <dimension ref="A2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2275,11 +2071,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.3047" style="39" customWidth="1"/>
-    <col min="2" max="6" width="16.3516" style="39" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="39" customWidth="1"/>
-    <col min="8" max="9" width="16.3516" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="39" customWidth="1"/>
+    <col min="1" max="1" width="22.3047" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="33" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.3047" style="33" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.1641" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="33" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="14.3516" style="33" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="16.3516" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2294,380 +2097,406 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="19">
+      <c r="B2" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="19">
+      <c r="C2" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="19">
+      <c r="D2" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="E2" t="s" s="19">
+      <c r="E2" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="19">
+      <c r="F2" t="s" s="16">
         <v>26</v>
       </c>
-      <c r="G2" t="s" s="19">
+      <c r="G2" t="s" s="16">
         <v>27</v>
       </c>
-      <c r="H2" t="s" s="19">
+      <c r="H2" t="s" s="16">
         <v>28</v>
       </c>
-      <c r="I2" t="s" s="40">
+      <c r="I2" t="s" s="16">
         <v>29</v>
       </c>
+      <c r="J2" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s" s="18">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="24">
+      <c r="B3" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="25">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="24">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s" s="24">
-        <v>30</v>
-      </c>
-      <c r="H3" s="41">
+      <c r="C3" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="22">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G3" s="34">
         <v>0</v>
       </c>
-      <c r="I3" t="s" s="24">
-        <v>31</v>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" t="s" s="20">
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" t="s" s="29">
+      <c r="A4" t="s" s="23">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="30">
+      <c r="B4" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s" s="42">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s" s="43">
+      <c r="C4" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s" s="24">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s" s="36">
+        <v>34</v>
+      </c>
+      <c r="G4" s="37">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s" s="38">
+        <v>4</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" t="s" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="20.2" customHeight="1">
+      <c r="A5" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s" s="36">
+        <v>34</v>
+      </c>
+      <c r="G5" s="39">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s" s="38">
+        <v>4</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" t="s" s="26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="20.2" customHeight="1">
+      <c r="A6" t="s" s="23">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="24">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" t="s" s="24">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="20.2" customHeight="1">
+      <c r="A7" t="s" s="25">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="H4" s="44">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s" s="30">
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s" s="26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="20.2" customHeight="1">
+      <c r="A8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s" s="24">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s" s="36">
+        <v>34</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="38">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s" s="38">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s" s="38">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="20.2" customHeight="1">
+      <c r="A9" t="s" s="25">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s" s="26">
+        <v>32</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" t="s" s="26">
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" t="s" s="33">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s" s="34">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s" s="42">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s" s="43">
+    <row r="10" ht="20.2" customHeight="1">
+      <c r="A10" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="24">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="H5" s="45">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s" s="34">
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" t="s" s="24">
         <v>33</v>
       </c>
     </row>
-    <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" t="s" s="29">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="30">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="37">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s" s="30">
-        <v>34</v>
-      </c>
-      <c r="H6" s="44">
+    <row r="11" ht="20.2" customHeight="1">
+      <c r="A11" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s" s="26">
+        <v>32</v>
+      </c>
+      <c r="G11" s="39">
         <v>0</v>
       </c>
-      <c r="I6" t="s" s="30">
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" t="s" s="26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="20.2" customHeight="1">
+      <c r="A12" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="24">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" t="s" s="24">
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" t="s" s="33">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="34">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s" s="34">
-        <v>30</v>
-      </c>
-      <c r="H7" s="45">
+    <row r="13" ht="20.2" customHeight="1">
+      <c r="A13" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s" s="26">
+        <v>32</v>
+      </c>
+      <c r="G13" s="39">
         <v>0</v>
       </c>
-      <c r="I7" t="s" s="34">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" t="s" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" t="s" s="29">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s" s="30">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s" s="43">
-        <v>32</v>
-      </c>
-      <c r="H8" s="44">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="30">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" t="s" s="33">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s" s="34">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s" s="37">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s" s="34">
-        <v>30</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s" s="34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" t="s" s="29">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s" s="30">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s" s="30">
-        <v>30</v>
-      </c>
-      <c r="H10" s="44">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s" s="30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" t="s" s="33">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s" s="34">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s" s="34">
-        <v>30</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s" s="34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" t="s" s="29">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s" s="30">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s" s="30">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s" s="30">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s" s="30">
-        <v>30</v>
-      </c>
-      <c r="H12" s="44">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s" s="30">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" t="s" s="33">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s" s="34">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s" s="37">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="34">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s" s="34">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s" s="34">
-        <v>30</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s" s="34">
-        <v>33</v>
-      </c>
-    </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/src/test/resources/testCases.xlsx
+++ b/src/test/resources/testCases.xlsx
@@ -79,7 +79,7 @@
     <t>Basket</t>
   </si>
   <si>
-    <t>Created multiple suites</t>
+    <t>Separate suite for execution</t>
   </si>
   <si>
     <t>smoke</t>
@@ -403,10 +403,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1808,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F15"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -1816,242 +1816,244 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.6797" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.3047" style="17" customWidth="1"/>
-    <col min="3" max="6" width="16.3516" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="1" width="22.3047" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.3047" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="B1" t="s" s="2">
+      <c r="A1" t="s" s="2">
         <v>21</v>
       </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="B2" t="s" s="3">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
+      <c r="B2" t="s" s="16">
+        <v>17</v>
+      </c>
       <c r="C2" t="s" s="16">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="E2" t="s" s="18">
         <v>24</v>
       </c>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="B3" t="s" s="19">
+      <c r="A3" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="20">
+      <c r="B3" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="21">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="22">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s" s="20">
+      <c r="C3" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="22">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="B4" t="s" s="23">
+      <c r="A4" t="s" s="23">
         <v>5</v>
       </c>
+      <c r="B4" t="s" s="24">
+        <v>18</v>
+      </c>
       <c r="C4" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="20.2" customHeight="1">
+      <c r="A5" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="26">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="20.2" customHeight="1">
-      <c r="B5" t="s" s="25">
-        <v>6</v>
-      </c>
       <c r="C5" t="s" s="26">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s" s="26">
         <v>7</v>
       </c>
       <c r="E5" t="s" s="26">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="B6" t="s" s="23">
+      <c r="A6" t="s" s="23">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="24">
+      <c r="B6" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="27">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="28">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="24">
+      <c r="C6" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="B7" t="s" s="25">
+      <c r="A7" t="s" s="25">
         <v>9</v>
       </c>
+      <c r="B7" t="s" s="26">
+        <v>19</v>
+      </c>
       <c r="C7" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="20.2" customHeight="1">
+      <c r="A8" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="26">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="26">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="20.2" customHeight="1">
-      <c r="B8" t="s" s="23">
-        <v>10</v>
-      </c>
       <c r="C8" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="20.2" customHeight="1">
+      <c r="A9" t="s" s="25">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s" s="26">
         <v>19</v>
       </c>
-      <c r="D8" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s" s="28">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="20.2" customHeight="1">
-      <c r="B9" t="s" s="25">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s" s="27">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s" s="28">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s" s="26">
+      <c r="C9" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="B10" t="s" s="23">
+      <c r="A10" t="s" s="23">
         <v>12</v>
       </c>
+      <c r="B10" t="s" s="24">
+        <v>20</v>
+      </c>
       <c r="C10" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="20.2" customHeight="1">
+      <c r="A11" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="D10" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s" s="28">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="20.2" customHeight="1">
-      <c r="B11" t="s" s="25">
-        <v>13</v>
-      </c>
       <c r="C11" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="20.2" customHeight="1">
+      <c r="A12" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="24">
         <v>20</v>
       </c>
-      <c r="D11" t="s" s="26">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s" s="26">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="20.2" customHeight="1">
-      <c r="B12" t="s" s="23">
-        <v>14</v>
-      </c>
       <c r="C12" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="20.2" customHeight="1">
+      <c r="A13" t="s" s="25">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="26">
         <v>20</v>
       </c>
-      <c r="D12" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="20.2" customHeight="1">
-      <c r="B13" t="s" s="25">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s" s="26">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s" s="27">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="28">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s" s="26">
+      <c r="C13" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="B14" s="29"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="B15" s="31"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2079,8 +2081,7 @@
     <col min="6" max="6" width="19.625" style="33" customWidth="1"/>
     <col min="7" max="7" width="12.1641" style="33" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="33" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="14.3516" style="33" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16.3516" style="33" customWidth="1"/>
     <col min="12" max="16384" width="16.3516" style="33" customWidth="1"/>
   </cols>
@@ -2100,7 +2101,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="20.45" customHeight="1">
+    <row r="2" ht="32.45" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -2186,9 +2187,7 @@
       <c r="G4" s="37">
         <v>3</v>
       </c>
-      <c r="H4" t="s" s="38">
-        <v>4</v>
-      </c>
+      <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
       <c r="K4" t="s" s="24">
@@ -2214,10 +2213,10 @@
       <c r="F5" t="s" s="36">
         <v>34</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>5</v>
       </c>
-      <c r="H5" t="s" s="38">
+      <c r="H5" t="s" s="39">
         <v>4</v>
       </c>
       <c r="I5" s="32"/>
@@ -2276,7 +2275,7 @@
       <c r="F7" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>0</v>
       </c>
       <c r="H7" s="32"/>
@@ -2310,13 +2309,13 @@
       <c r="G8" s="37">
         <v>1</v>
       </c>
-      <c r="H8" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s" s="38">
+      <c r="H8" t="s" s="39">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s" s="39">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s" s="24">
         <v>4</v>
       </c>
       <c r="K8" t="s" s="24">
@@ -2342,7 +2341,7 @@
       <c r="F9" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>0</v>
       </c>
       <c r="H9" s="32"/>
@@ -2400,7 +2399,7 @@
       <c r="F11" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>0</v>
       </c>
       <c r="H11" s="32"/>
@@ -2458,7 +2457,7 @@
       <c r="F13" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>0</v>
       </c>
       <c r="H13" s="32"/>
